--- a/001_プロジェクト管理/001_帳票/WBS.xlsx
+++ b/001_プロジェクト管理/001_帳票/WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\document\share\document\001_プロジェクト管理\001_帳票\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8EBF247-7293-4182-99B7-5A69816705D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CF7681-D314-4D68-A367-3390C685B518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="2355" windowWidth="21600" windowHeight="12735" xr2:uid="{1BA515AF-F67D-4B27-897A-F81EADA04EB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{1BA515AF-F67D-4B27-897A-F81EADA04EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -260,7 +269,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FCDDB-05FD-4478-A0F7-5D550782556D}">
   <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -851,6 +860,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -858,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D66094-B556-4F59-B490-2259E66EDFFD}">
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
